--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T14:00:55+00:00</t>
+    <t>2024-09-05T16:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T16:04:17+00:00</t>
+    <t>2024-12-10T11:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Bundle Agrégateur SAS CPTS</t>
+    <t>Profil de Bundle qui représente le flux de réponse contenant les créneaux disponibles dans le cadre du service d'agrégation de créneaux de la plateforme SAS - Cas d'usage CPTS</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T11:32:52+00:00</t>
+    <t>2025-11-24T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,7 +365,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -639,7 +639,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1879,17 +1879,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.49609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1898,26 +1898,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.91015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.23828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8089,7 +8089,7 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>282</v>
@@ -11727,7 +11727,7 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>319</v>
@@ -15365,7 +15365,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>355</v>
@@ -19003,7 +19003,7 @@
         <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>393</v>
@@ -22641,7 +22641,7 @@
         <v>76</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>429</v>
@@ -26279,7 +26279,7 @@
         <v>76</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K215" t="s" s="2">
         <v>466</v>
